--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.1596817386412</v>
+        <v>471.8176185569645</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.5634538606171</v>
+        <v>645.5616808339128</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.3917838781546</v>
+        <v>583.950180066633</v>
       </c>
       <c r="AD2" t="n">
-        <v>430159.6817386412</v>
+        <v>471817.6185569646</v>
       </c>
       <c r="AE2" t="n">
-        <v>588563.4538606171</v>
+        <v>645561.6808339128</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.61220655891158e-06</v>
+        <v>4.416064795605924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>532391.7838781546</v>
+        <v>583950.180066633</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.0067531602798</v>
+        <v>177.7504702234206</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.8235663228893</v>
+        <v>243.2060351568732</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.3211066598632</v>
+        <v>219.9947925033859</v>
       </c>
       <c r="AD3" t="n">
-        <v>157006.7531602798</v>
+        <v>177750.4702234206</v>
       </c>
       <c r="AE3" t="n">
-        <v>214823.5663228893</v>
+        <v>243206.0351568732</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.838840575926405e-06</v>
+        <v>8.18030007849061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>194321.1066598632</v>
+        <v>219994.7925033859</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.4080379374546</v>
+        <v>149.237006346616</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.6935424687693</v>
+        <v>204.1926559554024</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.9255973630345</v>
+        <v>184.7047954572695</v>
       </c>
       <c r="AD4" t="n">
-        <v>128408.0379374546</v>
+        <v>149237.006346616</v>
       </c>
       <c r="AE4" t="n">
-        <v>175693.5424687693</v>
+        <v>204192.6559554024</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.249359354926584e-06</v>
+        <v>8.874302442772698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.859722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>158925.5973630346</v>
+        <v>184704.7954572695</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.3012532248477</v>
+        <v>149.1302216340091</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.5474349139716</v>
+        <v>204.0465484006047</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.7934341082034</v>
+        <v>184.5726322024384</v>
       </c>
       <c r="AD5" t="n">
-        <v>128301.2532248477</v>
+        <v>149130.2216340091</v>
       </c>
       <c r="AE5" t="n">
-        <v>175547.4349139716</v>
+        <v>204046.5484006047</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.265552526379682e-06</v>
+        <v>8.901677802557812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.848611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>158793.4341082034</v>
+        <v>184572.6322024384</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.0154174512421</v>
+        <v>300.2018696368019</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.4470063962848</v>
+        <v>410.7494420088493</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.1875026279527</v>
+        <v>371.5480917539865</v>
       </c>
       <c r="AD2" t="n">
-        <v>270015.4174512421</v>
+        <v>300201.8696368019</v>
       </c>
       <c r="AE2" t="n">
-        <v>369447.0063962848</v>
+        <v>410749.4420088492</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.456566303523866e-06</v>
+        <v>5.986050441211712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.063888888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>334187.5026279527</v>
+        <v>371548.0917539864</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.8765590059248</v>
+        <v>143.0576946936449</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.1251289630265</v>
+        <v>195.7378491398214</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.0795026199424</v>
+        <v>177.0569035377689</v>
       </c>
       <c r="AD3" t="n">
-        <v>122876.5590059248</v>
+        <v>143057.6946936449</v>
       </c>
       <c r="AE3" t="n">
-        <v>168125.1289630265</v>
+        <v>195737.8491398214</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.293055796519934e-06</v>
+        <v>9.166466430519488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.959722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>152079.5026199424</v>
+        <v>177056.9035377689</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.803449434586</v>
+        <v>142.984585122306</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.0250972221541</v>
+        <v>195.637817398949</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.9890177680234</v>
+        <v>176.9664186858499</v>
       </c>
       <c r="AD4" t="n">
-        <v>122803.449434586</v>
+        <v>142984.585122306</v>
       </c>
       <c r="AE4" t="n">
-        <v>168025.0972221541</v>
+        <v>195637.817398949</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.311316559824439e-06</v>
+        <v>9.198090256200008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.945833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>151989.0177680234</v>
+        <v>176966.4186858499</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.1116278650324</v>
+        <v>155.3723838486065</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.2879811309918</v>
+        <v>212.5873501273738</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.5587422301255</v>
+        <v>192.2983117994978</v>
       </c>
       <c r="AD2" t="n">
-        <v>128111.6278650324</v>
+        <v>155372.3838486065</v>
       </c>
       <c r="AE2" t="n">
-        <v>175287.9811309918</v>
+        <v>212587.3501273738</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.963409825664913e-06</v>
+        <v>9.391839464926389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7125</v>
       </c>
       <c r="AH2" t="n">
-        <v>158558.7422301256</v>
+        <v>192298.3117994978</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.3846848041219</v>
+        <v>151.2926950160459</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.1345661490186</v>
+        <v>207.0053398834986</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.8473373797674</v>
+        <v>187.2490407788957</v>
       </c>
       <c r="AD2" t="n">
-        <v>132384.6848041218</v>
+        <v>151292.6950160459</v>
       </c>
       <c r="AE2" t="n">
-        <v>181134.5661490186</v>
+        <v>207005.3398834986</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.065386505866011e-06</v>
+        <v>9.228034139487473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163847.3373797674</v>
+        <v>187249.0407788957</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.8304052140227</v>
+        <v>146.7384154259468</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.9031998932129</v>
+        <v>200.7739736276927</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.2106839736362</v>
+        <v>181.6123873727646</v>
       </c>
       <c r="AD3" t="n">
-        <v>127830.4052140227</v>
+        <v>146738.4154259468</v>
       </c>
       <c r="AE3" t="n">
-        <v>174903.1998932129</v>
+        <v>200773.9736276927</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204579112604393e-06</v>
+        <v>9.48161283984105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.298611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>158210.6839736362</v>
+        <v>181612.3873727646</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.8293806371804</v>
+        <v>169.0667383377898</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.4254597752615</v>
+        <v>231.3245700917461</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.7743281757214</v>
+        <v>209.2472777883298</v>
       </c>
       <c r="AD2" t="n">
-        <v>142829.3806371804</v>
+        <v>169066.7383377898</v>
       </c>
       <c r="AE2" t="n">
-        <v>195425.4597752616</v>
+        <v>231324.5700917461</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.588426853482009e-06</v>
+        <v>8.991838239546679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.294444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>176774.3281757214</v>
+        <v>209247.2777883298</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.7994100009634</v>
+        <v>328.2412781249911</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.4622907460562</v>
+        <v>449.1141977137882</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.5746615941686</v>
+        <v>406.2513690197189</v>
       </c>
       <c r="AD2" t="n">
-        <v>297799.4100009634</v>
+        <v>328241.2781249911</v>
       </c>
       <c r="AE2" t="n">
-        <v>407462.2907460562</v>
+        <v>449114.1977137882</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243053337276984e-06</v>
+        <v>5.579612321021933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.405555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>368574.6615941686</v>
+        <v>406251.3690197189</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.3050620001535</v>
+        <v>145.6564749801854</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.4479138977192</v>
+        <v>199.2936149779591</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.085165624027</v>
+        <v>180.2733120748646</v>
       </c>
       <c r="AD3" t="n">
-        <v>125305.0620001535</v>
+        <v>145656.4749801854</v>
       </c>
       <c r="AE3" t="n">
-        <v>171447.9138977192</v>
+        <v>199293.6149779591</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.254033561083768e-06</v>
+        <v>9.039466004311958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.954166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>155085.165624027</v>
+        <v>180273.3120748646</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.9105588957203</v>
+        <v>144.2619718757522</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.5398932290996</v>
+        <v>197.3855943093395</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.359243770096</v>
+        <v>178.5473902209337</v>
       </c>
       <c r="AD4" t="n">
-        <v>123910.5588957203</v>
+        <v>144261.9718757522</v>
       </c>
       <c r="AE4" t="n">
-        <v>169539.8932290996</v>
+        <v>197385.5943093395</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.302790035348308e-06</v>
+        <v>9.123350602017784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>153359.243770096</v>
+        <v>178547.3902209337</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4843956157217</v>
+        <v>174.3368220644852</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.1629007505512</v>
+        <v>238.5353311462922</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.7733186438985</v>
+        <v>215.769853928199</v>
       </c>
       <c r="AD2" t="n">
-        <v>148484.3956157217</v>
+        <v>174336.8220644852</v>
       </c>
       <c r="AE2" t="n">
-        <v>203162.9007505513</v>
+        <v>238535.3311462922</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.2929927921424e-06</v>
+        <v>8.605992547463589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.790277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>183773.3186438985</v>
+        <v>215769.853928199</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.3035481810883</v>
+        <v>207.9321411782689</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.6452219874881</v>
+        <v>284.5019288786245</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.0559236084176</v>
+        <v>257.3494640874973</v>
       </c>
       <c r="AD2" t="n">
-        <v>188303.5481810883</v>
+        <v>207932.1411782689</v>
       </c>
       <c r="AE2" t="n">
-        <v>257645.2219874882</v>
+        <v>284501.9288786245</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.240513071611819e-06</v>
+        <v>7.510263749204748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.093055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>233055.9236084176</v>
+        <v>257349.4640874973</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.6171255133422</v>
+        <v>149.1603776559513</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.3478694312771</v>
+        <v>204.0878092002158</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.4220376821036</v>
+        <v>184.6099551292445</v>
       </c>
       <c r="AD3" t="n">
-        <v>129617.1255133422</v>
+        <v>149160.3776559513</v>
       </c>
       <c r="AE3" t="n">
-        <v>177347.8694312771</v>
+        <v>204087.8092002158</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.293022347856334e-06</v>
+        <v>9.374335886135188e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.080555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>160422.0376821036</v>
+        <v>184609.9551292445</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.7419093946984</v>
+        <v>262.7484844761782</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.447748282052</v>
+        <v>359.5040681053459</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.0555421303292</v>
+        <v>325.1935044124995</v>
       </c>
       <c r="AD2" t="n">
-        <v>232741.9093946984</v>
+        <v>262748.4844761782</v>
       </c>
       <c r="AE2" t="n">
-        <v>318447.748282052</v>
+        <v>359504.0681053459</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.705276504476664e-06</v>
+        <v>6.461678682011005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.711111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>288055.5421303292</v>
+        <v>325193.5044124995</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.4724946514512</v>
+        <v>151.3083880237844</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.204026170289</v>
+        <v>207.026811749013</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.3417471814584</v>
+        <v>187.2684633997014</v>
       </c>
       <c r="AD3" t="n">
-        <v>121472.4946514512</v>
+        <v>151308.3880237844</v>
       </c>
       <c r="AE3" t="n">
-        <v>166204.026170289</v>
+        <v>207026.811749013</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.299607272921559e-06</v>
+        <v>9.242052326484717e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>150341.7471814584</v>
+        <v>187268.4633997014</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.8578550409694</v>
+        <v>151.6937484133027</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.7312932561281</v>
+        <v>207.5540788348521</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.8186926366492</v>
+        <v>187.7454088548922</v>
       </c>
       <c r="AD4" t="n">
-        <v>121857.8550409694</v>
+        <v>151693.7484133027</v>
       </c>
       <c r="AE4" t="n">
-        <v>166731.2932561281</v>
+        <v>207554.0788348521</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.300369017196974e-06</v>
+        <v>9.243380741986138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.991666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>150818.6926366492</v>
+        <v>187745.4088548922</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.7269187224434</v>
+        <v>413.7392842025425</v>
       </c>
       <c r="AB2" t="n">
-        <v>523.6638549160384</v>
+        <v>566.0963415349145</v>
       </c>
       <c r="AC2" t="n">
-        <v>473.6861115696873</v>
+        <v>512.0689012200269</v>
       </c>
       <c r="AD2" t="n">
-        <v>382726.9187224435</v>
+        <v>413739.2842025425</v>
       </c>
       <c r="AE2" t="n">
-        <v>523663.8549160384</v>
+        <v>566096.3415349144</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.813813859620403e-06</v>
+        <v>4.783297071961554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.258333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>473686.1115696873</v>
+        <v>512068.9012200268</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.5681344923919</v>
+        <v>168.1577337940698</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.9092318590243</v>
+        <v>230.0808299725789</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.6392981518431</v>
+        <v>208.1222384805353</v>
       </c>
       <c r="AD3" t="n">
-        <v>147568.134492392</v>
+        <v>168157.7337940698</v>
       </c>
       <c r="AE3" t="n">
-        <v>201909.2318590243</v>
+        <v>230080.8299725789</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.01780874480413e-06</v>
+        <v>8.529942303974085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.070833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>182639.2981518431</v>
+        <v>208122.2384805353</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.4113675958099</v>
+        <v>147.0862182435083</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.9616100204537</v>
+        <v>201.2498527866577</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.4543967132941</v>
+        <v>182.0428492926986</v>
       </c>
       <c r="AD4" t="n">
-        <v>126411.3675958099</v>
+        <v>147086.2182435083</v>
       </c>
       <c r="AE4" t="n">
-        <v>172961.6100204538</v>
+        <v>201249.8527866577</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.283676289000299e-06</v>
+        <v>8.981899508369512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.865277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>156454.3967132941</v>
+        <v>182042.8492926986</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.3934076044499</v>
+        <v>162.6950411813293</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.1971863549931</v>
+        <v>222.6065329428417</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.4724022538086</v>
+        <v>201.3612778690721</v>
       </c>
       <c r="AD2" t="n">
-        <v>143393.40760445</v>
+        <v>162695.0411813293</v>
       </c>
       <c r="AE2" t="n">
-        <v>196197.1863549931</v>
+        <v>222606.5329428417</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.838132276952708e-06</v>
+        <v>8.724297390689401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>177472.4022538086</v>
+        <v>201361.2778690721</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.1562240668149</v>
+        <v>147.2872654431021</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.3489996217162</v>
+        <v>201.524934434718</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.6139372017352</v>
+        <v>182.2916775343477</v>
       </c>
       <c r="AD3" t="n">
-        <v>128156.2240668149</v>
+        <v>147287.265443102</v>
       </c>
       <c r="AE3" t="n">
-        <v>175348.9996217162</v>
+        <v>201524.934434718</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.244915922624419e-06</v>
+        <v>9.457824565094004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.212499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>158613.9372017352</v>
+        <v>182291.6775343477</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3160101989433</v>
+        <v>145.9047920524672</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1993819400753</v>
+        <v>199.6333733512309</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5740374181311</v>
+        <v>180.5806443858453</v>
       </c>
       <c r="AD2" t="n">
-        <v>127316.0101989433</v>
+        <v>145904.7920524672</v>
       </c>
       <c r="AE2" t="n">
-        <v>174199.3819400753</v>
+        <v>199633.3733512309</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.070718791817644e-06</v>
+        <v>9.460340447094038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.538888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>157574.0374181311</v>
+        <v>180580.6443858453</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.2396947232644</v>
+        <v>157.0548218081705</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.1996960901073</v>
+        <v>214.8893359675725</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.1925672001616</v>
+        <v>194.3805993419662</v>
       </c>
       <c r="AD2" t="n">
-        <v>130239.6947232644</v>
+        <v>157054.8218081705</v>
       </c>
       <c r="AE2" t="n">
-        <v>178199.6960901073</v>
+        <v>214889.3359675725</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.806234986631414e-06</v>
+        <v>9.242568111825238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.954166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>161192.5672001616</v>
+        <v>194380.5993419662</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.723065809869</v>
+        <v>203.2459919557075</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.222586294169</v>
+        <v>278.0901327740063</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.0595885847674</v>
+        <v>251.5496008040895</v>
       </c>
       <c r="AD2" t="n">
-        <v>169723.065809869</v>
+        <v>203245.9919557075</v>
       </c>
       <c r="AE2" t="n">
-        <v>232222.586294169</v>
+        <v>278090.1327740063</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.816341783508128e-06</v>
+        <v>7.871583972752143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.695833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>210059.5885847674</v>
+        <v>251549.6008040895</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.0896298616812</v>
+        <v>238.6497155716508</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.0856559600651</v>
+        <v>326.5310693273681</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.7820424790606</v>
+        <v>295.3674023600952</v>
       </c>
       <c r="AD2" t="n">
-        <v>209089.6298616812</v>
+        <v>238649.7155716508</v>
       </c>
       <c r="AE2" t="n">
-        <v>286085.6559600651</v>
+        <v>326531.0693273681</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.9669156349478e-06</v>
+        <v>6.969714284604987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.387499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>258782.0424790606</v>
+        <v>295367.4023600952</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.5523436704087</v>
+        <v>150.2875442647627</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.627476172688</v>
+        <v>205.630048281472</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.579520552054</v>
+        <v>186.0050050771322</v>
       </c>
       <c r="AD3" t="n">
-        <v>130552.3436704087</v>
+        <v>150287.5442647627</v>
       </c>
       <c r="AE3" t="n">
-        <v>178627.476172688</v>
+        <v>205630.048281472</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.303274282382796e-06</v>
+        <v>9.317643711772061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.029166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>161579.520552054</v>
+        <v>186005.0050771322</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.0652277955161</v>
+        <v>374.0115140306067</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.71453847064</v>
+        <v>511.7390537201487</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.2217825183732</v>
+        <v>462.8993966633698</v>
       </c>
       <c r="AD2" t="n">
-        <v>333065.2277955161</v>
+        <v>374011.5140306067</v>
       </c>
       <c r="AE2" t="n">
-        <v>455714.53847064</v>
+        <v>511739.0537201487</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019595385600747e-06</v>
+        <v>5.163171598433999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.819444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>412221.7825183732</v>
+        <v>462899.3966633698</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.6514352870192</v>
+        <v>160.2544738951222</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.3948135772623</v>
+        <v>219.2672411116252</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.4645015446825</v>
+        <v>198.3406833635003</v>
       </c>
       <c r="AD3" t="n">
-        <v>129651.4352870192</v>
+        <v>160254.4738951222</v>
       </c>
       <c r="AE3" t="n">
-        <v>177394.8135772623</v>
+        <v>219267.2411116252</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.169565093001229e-06</v>
+        <v>8.839380200314333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.983333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>160464.5015446825</v>
+        <v>198340.6833635003</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.1170014433645</v>
+        <v>145.6328149881953</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.1906011472743</v>
+        <v>199.2612423331131</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.8524104413438</v>
+        <v>180.2440290298074</v>
       </c>
       <c r="AD4" t="n">
-        <v>125117.0014433645</v>
+        <v>145632.8149881953</v>
       </c>
       <c r="AE4" t="n">
-        <v>171190.6011472743</v>
+        <v>199261.2423331131</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.295746073759699e-06</v>
+        <v>9.05513561550055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>154852.4104413438</v>
+        <v>180244.0290298074</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.9917509345106</v>
+        <v>244.6288056560708</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.0564660444539</v>
+        <v>334.7119241597053</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.3738840220636</v>
+        <v>302.7674878891387</v>
       </c>
       <c r="AD2" t="n">
-        <v>211991.7509345106</v>
+        <v>244628.8056560708</v>
       </c>
       <c r="AE2" t="n">
-        <v>290056.4660444539</v>
+        <v>334711.9241597053</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.084759707627649e-06</v>
+        <v>6.612060864343157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.577777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>262373.8840220636</v>
+        <v>302767.4878891387</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.376220903962</v>
+        <v>146.0474575080999</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.2817648829905</v>
+        <v>199.8285745215832</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.6485578485998</v>
+        <v>180.7572158304658</v>
       </c>
       <c r="AD2" t="n">
-        <v>127376.2209039619</v>
+        <v>146047.4575080999</v>
       </c>
       <c r="AE2" t="n">
-        <v>174281.7648829905</v>
+        <v>199828.5745215832</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139859463197218e-06</v>
+        <v>9.469844300856871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>157648.5578485997</v>
+        <v>180757.2158304658</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.3798057144681</v>
+        <v>146.051042318606</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.2866697788756</v>
+        <v>199.8334794174683</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.6529946281057</v>
+        <v>180.7616526099717</v>
       </c>
       <c r="AD3" t="n">
-        <v>127379.8057144681</v>
+        <v>146051.042318606</v>
       </c>
       <c r="AE3" t="n">
-        <v>174286.6697788757</v>
+        <v>199833.4794174683</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.156026137918632e-06</v>
+        <v>9.499630308348052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.398611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>157652.9946281057</v>
+        <v>180761.6526099718</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.3822222789914</v>
+        <v>188.4381741471265</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.0737879694101</v>
+        <v>257.8294231735001</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.2611317141559</v>
+        <v>233.2225448917646</v>
       </c>
       <c r="AD2" t="n">
-        <v>159382.2222789914</v>
+        <v>188438.1741471265</v>
       </c>
       <c r="AE2" t="n">
-        <v>218073.7879694102</v>
+        <v>257829.4231735001</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.545149638771446e-06</v>
+        <v>8.119578132459596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197261.1317141559</v>
+        <v>233222.5448917646</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.8452021596623</v>
+        <v>148.1874792954462</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.2916898439178</v>
+        <v>202.7566467421269</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.4666583922042</v>
+        <v>183.4058369478569</v>
       </c>
       <c r="AD3" t="n">
-        <v>128845.2021596623</v>
+        <v>148187.4792954462</v>
       </c>
       <c r="AE3" t="n">
-        <v>176291.6898439178</v>
+        <v>202756.6467421269</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.276706637256469e-06</v>
+        <v>9.426451322481201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.138888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>159466.6583922042</v>
+        <v>183405.8369478569</v>
       </c>
     </row>
   </sheetData>
